--- a/BOM-N6.xlsx
+++ b/BOM-N6.xlsx
@@ -55,10 +55,10 @@
     <t>mg90 14g tooth digital servo (S version) 180°</t>
   </si>
   <si>
-    <t>TMC2209 Stepper Motor Driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMC2209 Driver </t>
+    <t>Heat Sinks</t>
+  </si>
+  <si>
+    <t>9*9*12 black</t>
   </si>
   <si>
     <t>TCRT5000 Sensor PCB</t>
@@ -1238,7 +1238,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1357,7 +1357,6 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3"/>
       <c r="D7" s="1">
         <v>1</v>
       </c>
@@ -1372,7 +1371,6 @@
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3"/>
       <c r="D8" s="1">
         <v>1</v>
       </c>
@@ -1421,7 +1419,6 @@
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3"/>
       <c r="D11" s="1">
         <v>1</v>
       </c>
@@ -1438,7 +1435,6 @@
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3"/>
       <c r="D12" s="1">
         <v>1</v>
       </c>
@@ -1472,7 +1468,6 @@
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3"/>
       <c r="D14" s="1">
         <v>1</v>
       </c>
@@ -1659,7 +1654,6 @@
       <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="3"/>
       <c r="D25" s="1">
         <v>2</v>
       </c>
@@ -1676,7 +1670,6 @@
       <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="3"/>
       <c r="D26" s="1">
         <v>1</v>
       </c>
@@ -1693,7 +1686,6 @@
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="3"/>
       <c r="D27" s="1">
         <v>5</v>
       </c>
@@ -1708,7 +1700,6 @@
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="3"/>
       <c r="D28" s="1">
         <v>6</v>
       </c>
@@ -1723,7 +1714,6 @@
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="3"/>
       <c r="D29" s="1">
         <v>3</v>
       </c>
@@ -1738,7 +1728,6 @@
       <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="3"/>
       <c r="D30" s="1">
         <v>25</v>
       </c>
@@ -1754,7 +1743,6 @@
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="3"/>
       <c r="D31" s="1">
         <v>5</v>
       </c>
@@ -1769,7 +1757,6 @@
       <c r="B32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="3"/>
       <c r="D32" s="1">
         <v>3</v>
       </c>
@@ -1801,7 +1788,6 @@
       <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="3"/>
       <c r="D34" s="1">
         <v>7</v>
       </c>
@@ -1816,7 +1802,6 @@
       <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="3"/>
       <c r="D35" s="1">
         <v>2</v>
       </c>
@@ -1831,7 +1816,6 @@
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="3"/>
       <c r="D36" s="1">
         <v>11</v>
       </c>
@@ -1846,7 +1830,6 @@
       <c r="B37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="3"/>
       <c r="D37" s="1">
         <v>2</v>
       </c>
@@ -1878,7 +1861,6 @@
       <c r="B39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="3"/>
       <c r="D39" s="1">
         <v>3</v>
       </c>
@@ -1893,7 +1875,6 @@
       <c r="B40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="3"/>
       <c r="D40" s="1">
         <v>1</v>
       </c>
@@ -1925,7 +1906,6 @@
       <c r="B42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="3"/>
       <c r="D42" s="1">
         <v>23</v>
       </c>
@@ -2040,7 +2020,6 @@
       <c r="B49" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="3"/>
       <c r="D49" s="1">
         <v>1</v>
       </c>
@@ -2055,7 +2034,6 @@
       <c r="B50" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="3"/>
       <c r="D50" s="1">
         <v>10</v>
       </c>
